--- a/NOTARIOS_CUBA.xlsx
+++ b/NOTARIOS_CUBA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proyectos\ARP\notarios_repo\Notarios\notarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proyectos\ARP\notarios_repo\Notarios_UiPath\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>CodNotario</t>
   </si>
@@ -87,10 +87,10 @@
     <t>CASTILLO</t>
   </si>
   <si>
-    <t>CorreoCorporativo</t>
-  </si>
-  <si>
     <t>emartin@correonotarial.org</t>
+  </si>
+  <si>
+    <t>jigomeza@correonotarial.org</t>
   </si>
   <si>
     <t>mruiz@correonotarial.org</t>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,7 +469,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -488,6 +488,9 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -499,6 +502,9 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -517,7 +523,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">

--- a/NOTARIOS_CUBA.xlsx
+++ b/NOTARIOS_CUBA.xlsx
@@ -18,11 +18,12 @@
     <definedName name="NOTARIOS_CUBA">NOTARIOS_CUBA!$A$1:$F$6</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>CodNotario</t>
   </si>
@@ -91,9 +92,6 @@
   </si>
   <si>
     <t>jigomeza@correonotarial.org</t>
-  </si>
-  <si>
-    <t>mruiz@correonotarial.org</t>
   </si>
 </sst>
 </file>
@@ -439,7 +437,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,9 +466,6 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -502,9 +497,6 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -541,9 +533,6 @@
       </c>
       <c r="E5" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
